--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample05-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample05-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SalesData'!$A$1:$G$1</definedName>
@@ -11816,4 +11817,15 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample05-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample05-from-config-file.xlsx
@@ -6,7 +6,6 @@
   </bookViews>
   <sheets>
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
-    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SalesData'!$A$1:$G$1</definedName>
@@ -11817,15 +11816,4 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample05-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample05-from-config-file.xlsx
@@ -283,8 +283,8 @@
     <col min="3" max="3" width="12.5776890345982" customWidth="1"/>
     <col min="4" max="4" width="13.1618597848075" customWidth="1"/>
     <col min="5" max="5" width="11.5699697222028" customWidth="1"/>
-    <col min="6" max="6" width="6.78713962009975" customWidth="1"/>
-    <col min="7" max="7" width="8.23375374930245" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
